--- a/medicine/Pharmacie/Erreur_médicamenteuse/Erreur_médicamenteuse.xlsx
+++ b/medicine/Pharmacie/Erreur_médicamenteuse/Erreur_médicamenteuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Erreur_m%C3%A9dicamenteuse</t>
+          <t>Erreur_médicamenteuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon l'Association pour l'assurance qualité thérapeutique et l'évaluation (AAQTE), l’erreur médicamenteuse (EM) est « un événement iatrogène médicamenteux (EIM) évitable, résultant d’un dysfonctionnement non intentionnel dans l’organisation de la prise en charge thérapeutique médicamenteuse du patient.
 De tels événements peuvent s’avérer secondaires à plusieurs actions ou situations : 
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Erreur_m%C3%A9dicamenteuse</t>
+          <t>Erreur_médicamenteuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,9 +531,11 @@
           <t>Quelques constats, sur la base d'études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Extraits du dictionnaire français de l’erreur médicamenteuse, 72 pages, SFPC (introduction de Edith Dufay, Présidente d’AAQTE)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Extraits du dictionnaire français de l’erreur médicamenteuse, 72 pages, SFPC (introduction de Edith Dufay, Présidente d’AAQTE) :
 « L’observation des erreurs médicamenteuses amène à quatre constats majeurs : 
 l’erreur médicamenteuse est rarement un acte isolé, elle ne survient pas seule. Elle est l’enchaînement imprévu, mais curieusement souvent prévisible, de divers événements auxquels contribuent différents acteurs...
 au premier signal d’alerte, elle est aisée à détecter contrairement à la combinaison de facteurs, des circonstances et des défaillances qui en est à l’origine...
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Erreur_m%C3%A9dicamenteuse</t>
+          <t>Erreur_médicamenteuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,9 +574,11 @@
           <t>Quelques chiffres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« L’étude ENEIS[2] estime ce bilan humain à 50 000 voire 80 000 événements indésirables graves EIG liés au médicament par an, événements survenant pendant l’hospitalisation et cela sans évoquer leurs conséquences financières.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« L’étude ENEIS estime ce bilan humain à 50 000 voire 80 000 événements indésirables graves EIG liés au médicament par an, événements survenant pendant l’hospitalisation et cela sans évoquer leurs conséquences financières.
 Le déni du risque est rassurant, mais il laisse aux erreurs médicamenteuses la possibilité de se renouveler. 1.5 % des hospitalisations sont dues à des événements indésirables graves liés au médicament. Ceux qui surviennent durant l’hospitalisation s’évaluent à 1.4 pour 1 000 journées d’hospitalisation en secteurs de médecine, chirurgie, obstétrique.
 En regard des 11.5 millions d’hospitalisations et des 134.7 millions de journées d’hospitalisation en France en 2003, ces données impressionnent.
 Dans l’étude ENEIS, la moitié de ces EIG est certainement due à des erreurs médicamenteuses. Pour des raisons méthodologiques, cette estimation est sous-évaluée de mon point de vue, l’épidémiologie ayant marqué le pas à l’analyse causale. Les événements indésirables graves liés à l’erreur médicamenteuse représenteraient en réalité bien plus de la moitié ". »
